--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -36,10 +36,22 @@
     <t>Ngô Thị Mỹ Linh</t>
   </si>
   <si>
-    <t>Mô tả nghiệp vụ Admin, vẽ sơ đồ usecase Admin, mô tả usecase Admin</t>
-  </si>
-  <si>
-    <t>Mô tả nghiệp vụ User, vẽ sơ đồ usecase User, mô tả usecase User</t>
+    <t>Mô tả nghiệp vụ Admin, vẽ sơ đồ usecase Admin</t>
+  </si>
+  <si>
+    <t>Mô tả nghiệp vụ User, vẽ sơ đồ usecase User</t>
+  </si>
+  <si>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>Mô ta usecae Admin,  vẽ sơ đồ use case, ghi vào file Usecase specification</t>
+  </si>
+  <si>
+    <t>mô tả use case học viên,  vẽ sơ đồ use case, ghi vào file Usecase specification</t>
+  </si>
+  <si>
+    <t>Vẽ flow use case, và bảng Flow UC</t>
   </si>
 </sst>
 </file>
@@ -357,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D5"/>
+  <dimension ref="B3:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -367,9 +379,10 @@
   <cols>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -379,21 +392,36 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Vẽ flow use case, và bảng Flow UC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">week4 </t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ activity</t>
+  </si>
+  <si>
+    <t>week5</t>
+  </si>
+  <si>
+    <t>thiết kế Database</t>
+  </si>
+  <si>
+    <t>week6</t>
   </si>
 </sst>
 </file>
@@ -369,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E5"/>
+  <dimension ref="B3:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +397,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -395,8 +410,17 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -409,8 +433,14 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -422,6 +452,12 @@
       </c>
       <c r="E5" t="s">
         <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>week6</t>
+  </si>
+  <si>
+    <t>vẽ màn hình học viên, huấn luyện viên</t>
+  </si>
+  <si>
+    <t>vẽ màn hình admin, nhân viên</t>
+  </si>
+  <si>
+    <t>week7</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H5"/>
+  <dimension ref="B3:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +406,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -419,8 +428,11 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -437,10 +449,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -457,6 +472,9 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">week4 </t>
   </si>
   <si>
-    <t>Vẽ sơ đồ activity</t>
-  </si>
-  <si>
     <t>week5</t>
   </si>
   <si>
@@ -69,13 +66,25 @@
     <t>week6</t>
   </si>
   <si>
-    <t>vẽ màn hình học viên, huấn luyện viên</t>
-  </si>
-  <si>
-    <t>vẽ màn hình admin, nhân viên</t>
-  </si>
-  <si>
     <t>week7</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ sequence</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ class diagram</t>
+  </si>
+  <si>
+    <t>Vẽ các màn hình admin, nhân viên</t>
+  </si>
+  <si>
+    <t>Vẽ các màn hình học viên, huấn luyện viên</t>
+  </si>
+  <si>
+    <t>code html</t>
+  </si>
+  <si>
+    <t>week8</t>
   </si>
 </sst>
 </file>
@@ -393,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I5"/>
+  <dimension ref="B3:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +415,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -423,16 +432,19 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
+      <c r="J3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -446,16 +458,19 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -469,13 +484,16 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,33 @@
   </si>
   <si>
     <t>week8</t>
+  </si>
+  <si>
+    <t>func manage user</t>
+  </si>
+  <si>
+    <t>func manage course</t>
+  </si>
+  <si>
+    <t>func manage news</t>
+  </si>
+  <si>
+    <t>func manage produce</t>
+  </si>
+  <si>
+    <t>func login</t>
+  </si>
+  <si>
+    <t>week9</t>
+  </si>
+  <si>
+    <t>week10</t>
+  </si>
+  <si>
+    <t>week11</t>
+  </si>
+  <si>
+    <t>week12</t>
   </si>
 </sst>
 </file>
@@ -402,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J5"/>
+  <dimension ref="B3:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,9 +440,15 @@
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -443,8 +476,20 @@
       <c r="J3" t="s">
         <v>21</v>
       </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -469,8 +514,23 @@
       <c r="I4" t="s">
         <v>20</v>
       </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
